--- a/Backend/app/datasets/suggestions.xlsx
+++ b/Backend/app/datasets/suggestions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="964" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-39860" yWindow="-28800" windowWidth="51200" windowHeight="28800" tabRatio="964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MDI advice Before Planned Ex" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="207">
   <si>
     <r>
       <rPr>
@@ -139,38 +139,6 @@
     <t xml:space="preserve">1. Your blood sugar will likely rise with this extremely intense exercise therefore take your usual meal time insulin if your exercise is within 2-3hrs of your meal  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(&gt;80% V0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2 max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>2. No additional carbohydrate should be needed for this duration and intensity of exercise</t>
   </si>
   <si>
@@ -890,12 +858,24 @@
   <si>
     <t xml:space="preserve">Team </t>
   </si>
+  <si>
+    <t>BG&lt;7</t>
+  </si>
+  <si>
+    <t>BG&lt;5</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -929,13 +909,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1075,40 +1048,40 @@
   </borders>
   <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1153,21 +1126,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1183,13 +1156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1214,7 +1187,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1658,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1686,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1705,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1717,7 +1690,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1742,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1753,7 +1726,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1778,10 +1751,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1789,7 +1762,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1817,23 +1790,20 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -1868,10 +1838,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>13</v>
@@ -1879,20 +1849,20 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D21" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -1903,10 +1873,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>17</v>
@@ -1914,20 +1884,20 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D25" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -1938,11 +1908,11 @@
         <v>16</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -1953,11 +1923,11 @@
         <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1980,16 +1950,16 @@
     </row>
     <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>13</v>
@@ -1997,7 +1967,7 @@
     </row>
     <row r="35" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="D35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -2015,29 +1985,29 @@
     </row>
     <row r="38" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="D38" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D39" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2045,27 +2015,27 @@
     </row>
     <row r="41" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E42" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>13</v>
@@ -2073,2745 +2043,2745 @@
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="D46" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ED47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ER47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ES47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ET47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="EZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="GZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ID47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="II47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="JZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="KZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="LZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ME47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ML47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="MZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ND47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="NZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ON47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="OZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="PZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="QZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="RZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ST47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="SZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="TZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="US47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="UZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="VZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="WZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="XZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="YZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ZZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AAZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ABZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ACZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ADZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AED47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AER47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AES47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AET47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AEZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AFZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AGZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AHZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AID47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AII47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AIZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AKZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALE47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALK47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALL47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALM47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALN47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALO47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALP47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALQ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALR47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALS47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALT47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALU47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALV47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALW47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALX47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALY47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ALZ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMA47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMB47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMC47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMD47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AME47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMF47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMG47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMH47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMI47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AMJ47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D50" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4819,32 +4789,32 @@
     </row>
     <row r="52" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4868,68 +4838,68 @@
     </row>
     <row r="57" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E59" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -4937,18 +4907,20 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
+      <c r="A68" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -4962,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4978,7 +4950,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -4987,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -5018,13 +4990,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5032,43 +5004,45 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="D8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="D9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5105,16 +5079,16 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -5122,7 +5096,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -5130,12 +5104,12 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5172,30 +5146,30 @@
     </row>
     <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -5203,7 +5177,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -5211,58 +5185,58 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -5289,6 +5263,11 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5299,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -5314,7 +5293,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5328,7 +5307,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5340,36 +5321,36 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -5380,7 +5361,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -5388,28 +5369,28 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -5441,35 +5422,35 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -5480,11 +5461,11 @@
         <v>16</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -5507,11 +5488,11 @@
         <v>21</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -5562,17 +5543,17 @@
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -5584,7 +5565,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -5599,10 +5580,10 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -5610,37 +5591,37 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D28" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -5648,12 +5629,12 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -5661,10 +5642,10 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -5672,31 +5653,31 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -5704,10 +5685,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="17" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -5715,56 +5696,56 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D41" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D42" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -5834,84 +5815,84 @@
     </row>
     <row r="48" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E50" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D51" s="17" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D52" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5919,12 +5900,12 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5932,10 +5913,10 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="17" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5943,10 +5924,10 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5969,7 +5950,9 @@
       <c r="Q60" s="3"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
+      <c r="A62" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -5985,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6001,7 +5984,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="11"/>
@@ -6094,13 +6077,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -6142,7 +6125,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -6184,7 +6167,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -6226,28 +6209,28 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -6380,16 +6363,16 @@
     </row>
     <row r="13" spans="1:38" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -6431,7 +6414,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -6473,7 +6456,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -6515,7 +6498,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -6642,30 +6625,30 @@
     </row>
     <row r="19" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -6707,7 +6690,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6749,7 +6732,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -6791,7 +6774,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -6870,31 +6853,31 @@
     </row>
     <row r="25" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -6936,7 +6919,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="15"/>
       <c r="D27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -6978,7 +6961,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -7020,7 +7003,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -7097,6 +7080,11 @@
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
     </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7107,8 +7095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7121,7 +7109,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7136,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -7152,21 +7140,21 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7176,7 +7164,7 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7187,21 +7175,21 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7211,7 +7199,7 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7222,21 +7210,21 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7246,7 +7234,7 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -7257,20 +7245,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7282,13 +7270,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7296,15 +7284,15 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7313,7 +7301,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7324,13 +7312,13 @@
         <v>12</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -7338,18 +7326,18 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7358,7 +7346,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7369,11 +7357,11 @@
         <v>16</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7384,11 +7372,11 @@
         <v>21</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7426,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>5</v>
@@ -7434,19 +7422,19 @@
     </row>
     <row r="35" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -7455,10 +7443,10 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -7467,7 +7455,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -7484,10 +7472,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7495,25 +7483,25 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -7521,7 +7509,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -7530,7 +7518,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -7538,10 +7526,10 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -7549,10 +7537,10 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7569,19 +7557,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -7589,15 +7577,15 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -7606,7 +7594,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -7614,10 +7602,10 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7625,40 +7613,40 @@
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7700,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -7708,32 +7696,32 @@
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -7742,7 +7730,7 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -7751,7 +7739,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7762,33 +7750,33 @@
     </row>
     <row r="65" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" s="39"/>
     </row>
     <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -7797,7 +7785,7 @@
       <c r="C67" s="15"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -7806,7 +7794,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -7815,7 +7803,7 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7831,7 +7819,9 @@
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
+      <c r="A72" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -7845,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7861,7 +7851,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7901,13 +7891,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -7915,17 +7905,17 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -7933,28 +7923,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7991,30 +7981,30 @@
     </row>
     <row r="14" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -8022,7 +8012,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -8030,12 +8020,12 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8072,30 +8062,30 @@
     </row>
     <row r="22" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -8103,7 +8093,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -8111,15 +8101,20 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8130,8 +8125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8145,7 +8140,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -8159,7 +8154,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8186,14 +8183,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -8202,28 +8199,28 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -8234,11 +8231,11 @@
         <v>21</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
@@ -8247,7 +8244,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -8255,10 +8252,10 @@
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -8266,10 +8263,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -8299,14 +8296,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -8315,28 +8312,28 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8345,14 +8342,14 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -8389,17 +8386,17 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -8408,7 +8405,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -8416,10 +8413,10 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -8427,10 +8424,10 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -8439,7 +8436,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -8447,10 +8444,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8458,25 +8455,25 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -8484,7 +8481,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
@@ -8493,7 +8490,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
@@ -8501,10 +8498,10 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
@@ -8512,10 +8509,10 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
@@ -8523,10 +8520,10 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
@@ -8534,10 +8531,10 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
@@ -8589,22 +8586,22 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
@@ -8613,7 +8610,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
@@ -8621,10 +8618,10 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
@@ -8632,10 +8629,10 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -8643,10 +8640,10 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:39" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8654,25 +8651,25 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -8711,17 +8708,17 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
@@ -8799,31 +8796,31 @@
     </row>
     <row r="51" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
@@ -8832,7 +8829,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
@@ -8841,23 +8838,23 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D55" s="5" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D56" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8868,31 +8865,31 @@
     </row>
     <row r="58" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
@@ -8901,7 +8898,7 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
@@ -8910,7 +8907,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
@@ -8919,23 +8916,23 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D63" s="5" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D64" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8945,7 +8942,9 @@
       <c r="D65" s="43"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
+      <c r="A67" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -8959,10 +8958,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8975,7 +8974,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -9015,13 +9014,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -9029,17 +9028,17 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D5" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -9047,28 +9046,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -9127,16 +9126,16 @@
     </row>
     <row r="14" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -9144,7 +9143,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -9152,12 +9151,12 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -9217,16 +9216,16 @@
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -9234,7 +9233,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -9242,12 +9241,12 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -9274,6 +9273,11 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9284,7 +9288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -9296,133 +9300,133 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
         <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
         <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
         <v>179</v>
-      </c>
-      <c r="B13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
         <v>184</v>
-      </c>
-      <c r="B18" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s">
         <v>186</v>
-      </c>
-      <c r="B21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
         <v>190</v>
-      </c>
-      <c r="B25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/app/datasets/suggestions.xlsx
+++ b/Backend/app/datasets/suggestions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-39860" yWindow="-28800" windowWidth="51200" windowHeight="28800" tabRatio="964" activeTab="1"/>
+    <workbookView xWindow="-39860" yWindow="-28800" windowWidth="51200" windowHeight="28800" tabRatio="964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MDI advice Before Planned Ex" sheetId="1" r:id="rId1"/>
@@ -4936,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46:D46"/>
     </sheetView>
   </sheetViews>
@@ -5278,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Backend/app/datasets/suggestions.xlsx
+++ b/Backend/app/datasets/suggestions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Desktop/Projects/GlassByte/Diabetes/Backend/app/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\amnch.ie\dfsroot\Users\finn9m01\Research Diabetes and PA\App project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-39860" yWindow="-28800" windowWidth="51200" windowHeight="28800" tabRatio="964" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="964" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MDI advice Before Planned Ex" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,8 @@
     <sheet name="Pump Advice After Unplanned Ex" sheetId="8" r:id="rId8"/>
     <sheet name="Links To Advice" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1631,27 +1628,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="118" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1667,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="D4" s="5" t="s">
         <v>200</v>
@@ -1696,18 +1693,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>200</v>
       </c>
@@ -1732,18 +1729,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>200</v>
       </c>
@@ -1768,13 +1765,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1796,17 +1793,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1830,7 +1827,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
         <v>200</v>
       </c>
@@ -1855,17 +1852,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
         <v>200</v>
       </c>
@@ -1890,17 +1887,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1930,8 +1927,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="D35" s="10" t="s">
         <v>200</v>
       </c>
@@ -1973,17 +1970,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
         <v>201</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="16" t="s">
         <v>202</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
@@ -2013,18 +2010,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>30</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="D46" s="10" t="s">
         <v>200</v>
       </c>
@@ -2049,7 +2046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>37</v>
       </c>
@@ -4763,12 +4760,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D49" s="5" t="s">
         <v>201</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" s="17" t="s">
         <v>202</v>
       </c>
@@ -4784,10 +4781,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>30</v>
       </c>
@@ -4802,7 +4799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
@@ -4817,9 +4814,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>1</v>
       </c>
@@ -4836,7 +4833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
@@ -4866,13 +4863,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E59" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>39</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>39</v>
       </c>
@@ -4902,7 +4899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4910,14 +4907,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E65" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>206</v>
       </c>
@@ -4936,25 +4933,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:D46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4985,7 +4982,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -4999,7 +4996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -5007,13 +5004,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -5027,26 +5024,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -5077,7 +5074,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5099,7 +5096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5107,13 +5104,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -5144,7 +5141,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5158,12 +5155,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>196</v>
@@ -5172,7 +5169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -5180,7 +5177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -5188,13 +5185,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -5209,12 +5206,12 @@
       </c>
       <c r="F26" s="33"/>
     </row>
-    <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>197</v>
@@ -5223,23 +5220,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D29" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5263,7 +5260,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>206</v>
       </c>
@@ -5278,26 +5275,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5316,7 +5313,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -5332,12 +5329,12 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>203</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="16" t="s">
         <v>68</v>
       </c>
@@ -5353,7 +5350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -5367,17 +5364,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
         <v>204</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="s">
         <v>68</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5417,7 +5414,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>6</v>
       </c>
@@ -5432,12 +5429,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
         <v>203</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="16" t="s">
         <v>68</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5477,7 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>6</v>
       </c>
@@ -5495,7 +5492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5514,7 +5511,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -5541,7 +5538,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:24" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -5563,7 +5560,7 @@
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>78</v>
       </c>
@@ -5575,7 +5572,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5586,7 +5583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5597,7 +5594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="17" t="s">
         <v>201</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="16" t="s">
         <v>202</v>
       </c>
@@ -5613,7 +5610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -5627,17 +5624,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -5648,7 +5645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5659,8 +5656,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
@@ -5675,12 +5672,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5691,7 +5688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5702,7 +5699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
         <v>201</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="17" t="s">
         <v>202</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>30</v>
       </c>
@@ -5733,7 +5730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -5748,7 +5745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5767,7 +5764,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -5786,7 +5783,7 @@
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>1</v>
       </c>
@@ -5813,7 +5810,7 @@
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
     </row>
-    <row r="48" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -5828,12 +5825,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>196</v>
@@ -5842,12 +5839,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E50" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D51" s="17" t="s">
         <v>204</v>
       </c>
@@ -5855,7 +5852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D52" s="17" t="s">
         <v>68</v>
       </c>
@@ -5863,8 +5860,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>39</v>
       </c>
@@ -5880,12 +5877,12 @@
       </c>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>197</v>
@@ -5895,7 +5892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -5903,12 +5900,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5919,7 +5916,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5930,7 +5927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5949,7 +5946,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>206</v>
       </c>
@@ -5959,7 +5956,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5970,19 +5967,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>86</v>
       </c>
@@ -6024,7 +6021,7 @@
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -6072,7 +6069,7 @@
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
-    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -6120,7 +6117,7 @@
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -6162,7 +6159,7 @@
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
     </row>
-    <row r="5" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -6204,7 +6201,7 @@
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
@@ -6218,22 +6215,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -6273,7 +6270,7 @@
       <c r="AK10" s="43"/>
       <c r="AL10" s="43"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -6313,7 +6310,7 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>1</v>
       </c>
@@ -6361,7 +6358,7 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
     </row>
-    <row r="13" spans="1:38" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -6409,7 +6406,7 @@
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6451,7 +6448,7 @@
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -6493,7 +6490,7 @@
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -6535,7 +6532,7 @@
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -6575,7 +6572,7 @@
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>1</v>
       </c>
@@ -6623,7 +6620,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
     </row>
-    <row r="19" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -6637,12 +6634,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>196</v>
@@ -6685,7 +6682,7 @@
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -6727,7 +6724,7 @@
       <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6769,7 +6766,7 @@
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6811,7 +6808,7 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6851,7 +6848,7 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
     </row>
-    <row r="25" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>39</v>
       </c>
@@ -6866,12 +6863,12 @@
       </c>
       <c r="F25" s="33"/>
     </row>
-    <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>197</v>
@@ -6914,7 +6911,7 @@
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="15"/>
@@ -6956,7 +6953,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6998,7 +6995,7 @@
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -7040,7 +7037,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -7080,7 +7077,7 @@
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>206</v>
       </c>
@@ -7095,25 +7092,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" customWidth="1"/>
-    <col min="5" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +7129,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -7149,7 +7146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>200</v>
       </c>
@@ -7157,17 +7154,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="10" t="s">
         <v>200</v>
       </c>
@@ -7192,17 +7189,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="10" t="s">
         <v>200</v>
       </c>
@@ -7227,17 +7224,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -7251,18 +7248,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>6</v>
       </c>
@@ -7279,7 +7276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7290,12 +7287,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7304,7 +7301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7332,7 +7329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>104</v>
       </c>
@@ -7340,7 +7337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7349,7 +7346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
@@ -7364,7 +7361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -7379,31 +7376,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="45"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>1</v>
       </c>
@@ -7420,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>30</v>
       </c>
@@ -7438,7 +7435,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -7449,7 +7446,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -7458,7 +7455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7467,7 +7464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -7478,7 +7475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7489,7 +7486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>30</v>
       </c>
@@ -7504,7 +7501,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -7512,7 +7509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7521,7 +7518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7532,7 +7529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7543,19 +7540,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>30</v>
       </c>
@@ -7572,7 +7569,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7583,12 +7580,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7597,7 +7594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -7608,7 +7605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -7619,7 +7616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>30</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>30</v>
       </c>
@@ -7649,18 +7646,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="C56" s="45"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -7677,7 +7674,7 @@
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>1</v>
       </c>
@@ -7694,7 +7691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>39</v>
       </c>
@@ -7709,12 +7706,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>196</v>
@@ -7724,7 +7721,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -7733,7 +7730,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -7742,13 +7739,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>39</v>
       </c>
@@ -7764,12 +7761,12 @@
       </c>
       <c r="F65" s="39"/>
     </row>
-    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>197</v>
@@ -7779,7 +7776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="46"/>
       <c r="B67" s="11"/>
       <c r="C67" s="15"/>
@@ -7788,7 +7785,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7797,7 +7794,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7806,19 +7803,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>206</v>
       </c>
@@ -7835,27 +7832,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A4" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7886,7 +7883,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -7900,7 +7897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -7908,17 +7905,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -7932,23 +7929,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -7979,139 +7976,125 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+    <row r="14" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>198</v>
       </c>
+      <c r="D14" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="18" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>198</v>
-      </c>
+      <c r="D22" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8125,26 +8108,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="5" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8178,7 +8161,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -8193,7 +8176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8202,12 +8185,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>203</v>
       </c>
@@ -8215,7 +8198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
@@ -8223,7 +8206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -8242,12 +8225,12 @@
       <c r="T9" s="44"/>
       <c r="U9" s="44"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -8258,7 +8241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8290,8 +8273,8 @@
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>6</v>
       </c>
@@ -8306,7 +8289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -8315,12 +8298,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
@@ -8328,7 +8311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="16" t="s">
         <v>68</v>
       </c>
@@ -8336,8 +8319,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:22" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>6</v>
       </c>
@@ -8352,7 +8335,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -8384,7 +8367,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>30</v>
       </c>
@@ -8399,7 +8382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="15"/>
       <c r="C25" s="11"/>
@@ -8408,7 +8391,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8419,7 +8402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8430,7 +8413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8439,7 +8422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8450,7 +8433,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -8461,7 +8444,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>30</v>
       </c>
@@ -8476,7 +8459,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -8484,7 +8467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8493,7 +8476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8504,7 +8487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -8515,7 +8498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8526,7 +8509,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -8537,7 +8520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -8578,13 +8561,13 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>30</v>
       </c>
@@ -8599,12 +8582,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -8613,7 +8596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -8624,7 +8607,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -8635,7 +8618,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -8646,7 +8629,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -8657,7 +8640,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>30</v>
       </c>
@@ -8706,7 +8689,7 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>30</v>
       </c>
@@ -8721,7 +8704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="7"/>
       <c r="C49" s="45"/>
@@ -8762,7 +8745,7 @@
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8777,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>39</v>
       </c>
@@ -8808,12 +8791,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>196</v>
@@ -8823,7 +8806,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -8832,7 +8815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8841,7 +8824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
         <v>204</v>
       </c>
@@ -8849,7 +8832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D56" s="17" t="s">
         <v>68</v>
       </c>
@@ -8857,13 +8840,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
@@ -8877,12 +8860,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>197</v>
@@ -8892,7 +8875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="46"/>
       <c r="B60" s="11"/>
       <c r="C60" s="15"/>
@@ -8901,7 +8884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8910,7 +8893,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8919,7 +8902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
         <v>204</v>
       </c>
@@ -8927,7 +8910,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D64" s="17" t="s">
         <v>68</v>
       </c>
@@ -8935,13 +8918,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>206</v>
       </c>
@@ -8958,27 +8941,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9009,7 +8992,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -9023,7 +9006,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -9031,17 +9014,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -9055,22 +9038,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9093,7 +9076,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -9124,7 +9107,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
@@ -9138,7 +9121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -9146,7 +9129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -9154,12 +9137,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9183,7 +9166,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -9214,67 +9197,81 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:22" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>57</v>
+      <c r="B21" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>206</v>
       </c>
     </row>
@@ -9292,13 +9289,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>167</v>
       </c>
@@ -9306,22 +9303,22 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>172</v>
       </c>
@@ -9329,17 +9326,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>175</v>
       </c>
@@ -9347,12 +9344,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>178</v>
       </c>
@@ -9360,22 +9357,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>183</v>
       </c>
@@ -9383,12 +9380,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>185</v>
       </c>
@@ -9396,17 +9393,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>189</v>
       </c>
@@ -9414,17 +9411,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>104</v>
       </c>
